--- a/data/Employees.xlsx
+++ b/data/Employees.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,9 +826,7 @@
       <c r="I9" s="3" t="n">
         <v>43107</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <v>45983</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>L02</t>
@@ -1334,7 +1332,9 @@
       <c r="I21" s="3" t="n">
         <v>44271</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" s="3" t="n">
+        <v>45140</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>L03</t>
@@ -1502,7 +1502,9 @@
       <c r="I25" s="3" t="n">
         <v>43833</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" s="3" t="n">
+        <v>45187</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>L04</t>
@@ -1670,9 +1672,7 @@
       <c r="I29" s="3" t="n">
         <v>43469</v>
       </c>
-      <c r="J29" s="3" t="n">
-        <v>45083</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>L05</t>
@@ -1922,7 +1922,9 @@
       <c r="I35" s="3" t="n">
         <v>43832</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" s="3" t="n">
+        <v>45091</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>L06</t>
@@ -2088,7 +2090,9 @@
       <c r="I39" s="3" t="n">
         <v>43831</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" s="3" t="n">
+        <v>45409</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>L07</t>
@@ -2172,7 +2176,9 @@
       <c r="I41" s="3" t="n">
         <v>44502</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" s="3" t="n">
+        <v>45201</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>L07</t>
@@ -2213,7 +2219,9 @@
       <c r="I42" s="3" t="n">
         <v>43831</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" s="3" t="n">
+        <v>45428</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>L08</t>
@@ -2381,9 +2389,7 @@
       <c r="I46" s="3" t="n">
         <v>44456</v>
       </c>
-      <c r="J46" s="3" t="n">
-        <v>45337</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>L08</t>
@@ -2465,7 +2471,9 @@
       <c r="I48" s="3" t="n">
         <v>44201</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" s="3" t="n">
+        <v>44567</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>L09</t>
@@ -2631,7 +2639,9 @@
       <c r="I52" s="3" t="n">
         <v>44202</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" s="3" t="n">
+        <v>45769</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>L10</t>
@@ -2713,7 +2723,9 @@
       <c r="I54" s="3" t="n">
         <v>44197</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" s="3" t="n">
+        <v>45791</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>L11</t>
@@ -2808,17 +2820,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -2828,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>32265</v>
+        <v>30054</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
@@ -2849,35 +2861,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sims</t>
+          <t>York</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>37407</v>
+        <v>37024</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>44564</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>44563</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>44649</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>L12</t>
@@ -2890,12 +2904,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2910,13 +2924,13 @@
         <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>30511</v>
+        <v>35451</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
@@ -2931,30 +2945,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Delgado</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>31846</v>
+        <v>37016</v>
       </c>
       <c r="I60" s="3" t="n">
         <v>44565</v>
@@ -2962,7 +2976,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>L09</t>
+          <t>L12</t>
         </is>
       </c>
     </row>
@@ -2972,38 +2986,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Guzman</t>
+          <t>Cervantes</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>38005</v>
+        <v>36792</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L12</t>
         </is>
       </c>
     </row>
@@ -3013,17 +3027,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Vernon</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Myers</t>
+          <t>Rangel</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -3033,18 +3047,18 @@
         <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>28492</v>
+        <v>33861</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L09</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3068,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3068,7 +3082,7 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -3077,15 +3091,17 @@
         <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>34971</v>
+        <v>33587</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>44929</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>44564</v>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>45149</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L11</t>
         </is>
       </c>
     </row>
@@ -3095,17 +3111,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Erickson</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -3118,15 +3134,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>28129</v>
+        <v>28113</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>44928</v>
+        <v>44563</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
@@ -3136,21 +3152,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Larry</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vaughan</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3159,15 +3175,15 @@
         <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>29506</v>
+        <v>35015</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L12</t>
         </is>
       </c>
     </row>
@@ -3177,38 +3193,38 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sherry</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Stevenson</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>36335</v>
+        <v>34604</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>44930</v>
+        <v>44565</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L10</t>
         </is>
       </c>
     </row>
@@ -3218,12 +3234,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Molly</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Sanders</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3232,24 +3248,24 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>31288</v>
+        <v>30074</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>44929</v>
+        <v>44562</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>L10</t>
+          <t>L07</t>
         </is>
       </c>
     </row>
@@ -3259,38 +3275,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>37173</v>
+        <v>27624</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
@@ -3300,12 +3316,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Toni</t>
+          <t>Stacey</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mcdonald</t>
+          <t>King</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3314,7 +3330,7 @@
         </is>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3323,15 +3339,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>36454</v>
+        <v>35271</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>44930</v>
+        <v>44565</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>L05</t>
+          <t>L08</t>
         </is>
       </c>
     </row>
@@ -3341,21 +3357,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Kristen</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Noble</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -3364,15 +3380,17 @@
         <v>1</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>34239</v>
+        <v>37651</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>44929</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>44563</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>45347</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>L02</t>
+          <t>L06</t>
         </is>
       </c>
     </row>
@@ -3382,38 +3400,38 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Potter</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>31808</v>
+        <v>30883</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>44929</v>
+        <v>44562</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>L05</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3441,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Ross</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3437,24 +3455,26 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>27670</v>
+        <v>37847</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>44563</v>
+      </c>
+      <c r="J72" s="3" t="n">
+        <v>45868</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>L08</t>
+          <t>L07</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3484,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Davidson</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3478,7 +3498,7 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3487,15 +3507,17 @@
         <v>0</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>36812</v>
+        <v>29371</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>44927</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>45148</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>L13</t>
         </is>
       </c>
     </row>
@@ -3505,17 +3527,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Choi</t>
+          <t>Delacruz</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -3528,15 +3550,15 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>37552</v>
+        <v>34916</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>45293</v>
+        <v>44930</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>L15</t>
+          <t>L14</t>
         </is>
       </c>
     </row>
@@ -3546,12 +3568,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3560,24 +3582,26 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>29857</v>
+        <v>34672</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>44927</v>
+      </c>
+      <c r="J75" s="3" t="n">
+        <v>45027</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>L04</t>
+          <t>L15</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3611,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Wise</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3601,24 +3625,24 @@
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>33044</v>
+        <v>28386</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>45294</v>
+        <v>44927</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L10</t>
         </is>
       </c>
     </row>
@@ -3628,12 +3652,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Prince</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3642,24 +3666,26 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>30121</v>
+        <v>35212</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>44930</v>
+      </c>
+      <c r="J77" s="3" t="n">
+        <v>45001</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L13</t>
         </is>
       </c>
     </row>
@@ -3669,12 +3695,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hayes</t>
+          <t>Pena</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3683,24 +3709,24 @@
         </is>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>33401</v>
+        <v>33942</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>45658</v>
+        <v>44929</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>L15</t>
+          <t>L10</t>
         </is>
       </c>
     </row>
@@ -3710,17 +3736,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -3733,15 +3759,15 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>29657</v>
+        <v>34090</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>45661</v>
+        <v>44929</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>L05</t>
+          <t>L01</t>
         </is>
       </c>
     </row>
@@ -3751,38 +3777,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>30744</v>
+        <v>30266</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>45661</v>
+        <v>44929</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>L11</t>
+          <t>L13</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3818,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mcbride</t>
+          <t>Hodges</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3809,21 +3835,23 @@
         <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>34582</v>
+        <v>37758</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>45659</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>44928</v>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>45059</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>L02</t>
+          <t>L06</t>
         </is>
       </c>
     </row>
@@ -3833,17 +3861,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Felicia</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Escobar</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -3856,13 +3884,4541 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>31381</v>
+        <v>35106</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>45661</v>
+        <v>44927</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>34500</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Cody</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>29101</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Courtney</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>36194</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Hartman</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>38518</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Sherri</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Juarez</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>30253</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Kathy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hernandez</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>36729</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>30038</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Christina</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Evans</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>27675</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>44930</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ayala</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>30304</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>29478</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Booth</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>28580</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Andrade</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>28574</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Kenneth</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>37008</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Peterson</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>37625</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Mills</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>28731</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J97" s="3" t="n">
+        <v>45597</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Brady</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>28543</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Massey</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>29787</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J99" s="3" t="n">
+        <v>45395</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Roger</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>30011</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J100" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ibarra</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>37282</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>30140</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>28170</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Erik</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Russo</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>34913</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Jenna</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Bates</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>34949</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>28000</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>44930</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Martha</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>35207</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Jesse</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rowe</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>36136</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>36383</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Hess</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>28315</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>30576</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Theresa</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Stevens</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>33276</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>44930</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>L10</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Nguyen</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>38675</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Griffin</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>37606</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Tammy</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>37212</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J115" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Luna</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>32805</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>35356</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J117" s="3" t="n">
+        <v>45461</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Eaton</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>33036</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>37886</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>37894</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Ashley</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Hopkins</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>29831</v>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Barnes</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>35759</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Evans</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>36799</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J123" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Zachary</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cuevas</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>34643</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>32561</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>29185</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>27620</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Kendra</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>35552</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>29823</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Massey</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>30053</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Gardner</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>36807</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Velasquez</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>35591</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Fritz</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>32733</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Debra</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Mcdonald</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>28243</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Garner</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>27719</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Bailey</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Robertson</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>36049</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J136" s="3" t="n">
+        <v>45689</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Leslie</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>31947</v>
+      </c>
+      <c r="I137" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Douglas</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cook</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>34849</v>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Jeremy</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Shepherd</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>34376</v>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Pittman</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>35141</v>
+      </c>
+      <c r="I140" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Kathy</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>37631</v>
+      </c>
+      <c r="I141" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>30382</v>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Mathew</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>38733</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Wendy</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Chavez</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>27447</v>
+      </c>
+      <c r="I144" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>38000</v>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J145" s="3" t="n">
+        <v>45757</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Little</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>30844</v>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>37196</v>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Larry</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Gibbs</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>28559</v>
+      </c>
+      <c r="I148" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>L10</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>37108</v>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Mcdowell</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>30330</v>
+      </c>
+      <c r="I150" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>34531</v>
+      </c>
+      <c r="I151" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Buckley</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>35386</v>
+      </c>
+      <c r="I152" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Brooks</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>30349</v>
+      </c>
+      <c r="I153" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>34828</v>
+      </c>
+      <c r="I154" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>37402</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Zimmerman</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>36990</v>
+      </c>
+      <c r="I156" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>30033</v>
+      </c>
+      <c r="I157" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Klein</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>35769</v>
+      </c>
+      <c r="I158" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Patel</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>36702</v>
+      </c>
+      <c r="I159" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Deleon</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>38220</v>
+      </c>
+      <c r="I160" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Malik</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>29878</v>
+      </c>
+      <c r="I161" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>30174</v>
+      </c>
+      <c r="I162" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>36992</v>
+      </c>
+      <c r="I163" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Gentry</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>31572</v>
+      </c>
+      <c r="I164" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Shawn</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Turner</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>32871</v>
+      </c>
+      <c r="I165" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Crystal</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>35828</v>
+      </c>
+      <c r="I166" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>L10</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>28485</v>
+      </c>
+      <c r="I167" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Tricia</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Roberts</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>32075</v>
+      </c>
+      <c r="I168" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>29127</v>
+      </c>
+      <c r="I169" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Walker</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>37444</v>
+      </c>
+      <c r="I170" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Kirby</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" t="b">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>33041</v>
+      </c>
+      <c r="I171" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>34216</v>
+      </c>
+      <c r="I172" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ernest</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Terrell</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>32393</v>
+      </c>
+      <c r="I173" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>36224</v>
+      </c>
+      <c r="I174" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>35453</v>
+      </c>
+      <c r="I175" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Sean</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Holmes</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>29670</v>
+      </c>
+      <c r="I176" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>30047</v>
+      </c>
+      <c r="I177" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>34900</v>
+      </c>
+      <c r="I178" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Koch</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>31436</v>
+      </c>
+      <c r="I179" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Bond</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" t="b">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2" t="n">
+        <v>32475</v>
+      </c>
+      <c r="I180" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Michaela</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Shepherd</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>34380</v>
+      </c>
+      <c r="I181" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Cheryl</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Stewart</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="b">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>34863</v>
+      </c>
+      <c r="I182" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>38244</v>
+      </c>
+      <c r="I183" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Cochran</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" t="b">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>34130</v>
+      </c>
+      <c r="I184" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Knox</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>36751</v>
+      </c>
+      <c r="I185" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Greene</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>38287</v>
+      </c>
+      <c r="I186" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Hobbs</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>31394</v>
+      </c>
+      <c r="I187" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Harrison</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" t="b">
+        <v>1</v>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>29696</v>
+      </c>
+      <c r="I188" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Cindy</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" t="b">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>28495</v>
+      </c>
+      <c r="I189" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Marcus</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Strickland</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>33081</v>
+      </c>
+      <c r="I190" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Brandi</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" t="b">
+        <v>1</v>
+      </c>
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>29331</v>
+      </c>
+      <c r="I191" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+      <c r="G192" t="b">
+        <v>0</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>33635</v>
+      </c>
+      <c r="I192" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>L02</t>
         </is>

--- a/data/Employees.xlsx
+++ b/data/Employees.xlsx
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>30440</v>
+        <v>30441</v>
       </c>
       <c r="I57" s="3" t="n">
         <v>44565</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>33689</v>
+        <v>33690</v>
       </c>
       <c r="I58" s="3" t="n">
         <v>44562</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>36969</v>
+        <v>36970</v>
       </c>
       <c r="I59" s="3" t="n">
         <v>44564</v>
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>32977</v>
+        <v>32978</v>
       </c>
       <c r="I60" s="3" t="n">
         <v>44564</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>27734</v>
+        <v>27735</v>
       </c>
       <c r="I61" s="3" t="n">
         <v>44564</v>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>32482</v>
+        <v>32483</v>
       </c>
       <c r="I62" s="3" t="n">
         <v>44929</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>27972</v>
+        <v>27973</v>
       </c>
       <c r="I63" s="3" t="n">
         <v>44927</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>32786</v>
+        <v>32787</v>
       </c>
       <c r="I64" s="3" t="n">
         <v>44928</v>
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>31077</v>
+        <v>31078</v>
       </c>
       <c r="I65" s="3" t="n">
         <v>44928</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>36102</v>
+        <v>36103</v>
       </c>
       <c r="I66" s="3" t="n">
         <v>44929</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>34071</v>
+        <v>34072</v>
       </c>
       <c r="I67" s="3" t="n">
         <v>45293</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>34910</v>
+        <v>34911</v>
       </c>
       <c r="I68" s="3" t="n">
         <v>45293</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>32549</v>
+        <v>32550</v>
       </c>
       <c r="I69" s="3" t="n">
         <v>45293</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>32890</v>
+        <v>32891</v>
       </c>
       <c r="I70" s="3" t="n">
         <v>45293</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>29788</v>
+        <v>29789</v>
       </c>
       <c r="I71" s="3" t="n">
         <v>45293</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>27787</v>
+        <v>27788</v>
       </c>
       <c r="I72" s="3" t="n">
         <v>45660</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>35682</v>
+        <v>35683</v>
       </c>
       <c r="I73" s="3" t="n">
         <v>45659</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>30347</v>
+        <v>30348</v>
       </c>
       <c r="I74" s="3" t="n">
         <v>45659</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>29914</v>
+        <v>29915</v>
       </c>
       <c r="I75" s="3" t="n">
         <v>45660</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>31700</v>
+        <v>31701</v>
       </c>
       <c r="I76" s="3" t="n">
         <v>45658</v>
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>28960</v>
+        <v>28961</v>
       </c>
       <c r="I77" s="3" t="n">
         <v>45661</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>30569</v>
+        <v>30570</v>
       </c>
       <c r="I78" s="3" t="n">
         <v>45293</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>35026</v>
+        <v>35027</v>
       </c>
       <c r="I79" s="3" t="n">
         <v>45293</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>27747</v>
+        <v>27748</v>
       </c>
       <c r="I80" s="3" t="n">
         <v>45293</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>30529</v>
+        <v>30530</v>
       </c>
       <c r="I81" s="3" t="n">
         <v>45293</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>33117</v>
+        <v>33118</v>
       </c>
       <c r="I82" s="3" t="n">
         <v>45293</v>
